--- a/Code/Results/Cases/Case_2_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8024363579936278</v>
+        <v>0.3397006374899547</v>
       </c>
       <c r="C2">
-        <v>0.09602493201400364</v>
+        <v>0.02866471113603097</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.271878306321625</v>
+        <v>0.3378702794578814</v>
       </c>
       <c r="F2">
-        <v>1.98390802764267</v>
+        <v>2.693714048937238</v>
       </c>
       <c r="G2">
-        <v>0.9601657221460584</v>
+        <v>1.20957717133804</v>
       </c>
       <c r="H2">
-        <v>0.6646772721882286</v>
+        <v>1.161705211693757</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.051599321928121</v>
+        <v>0.08968341031793159</v>
       </c>
       <c r="K2">
-        <v>0.803887004251294</v>
+        <v>0.2911386485056653</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.495860222328389</v>
+        <v>0.3466445029133709</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6949347845965121</v>
+        <v>0.3101547195475689</v>
       </c>
       <c r="C3">
-        <v>0.08534683483678407</v>
+        <v>0.02538525436314387</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2411352680626067</v>
+        <v>0.3320661613269991</v>
       </c>
       <c r="F3">
-        <v>1.839987063130962</v>
+        <v>2.672381942019086</v>
       </c>
       <c r="G3">
-        <v>0.9201506476392325</v>
+        <v>1.205136168216157</v>
       </c>
       <c r="H3">
-        <v>0.6542256828284678</v>
+        <v>1.164462089716523</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05337461080047046</v>
+        <v>0.09034952885836134</v>
       </c>
       <c r="K3">
-        <v>0.6965051548261272</v>
+        <v>0.2609142533154483</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4313742123060109</v>
+        <v>0.3312153550935051</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6294117864229349</v>
+        <v>0.2921502670799327</v>
       </c>
       <c r="C4">
-        <v>0.07880519311328982</v>
+        <v>0.02336004607641939</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2225356873543163</v>
+        <v>0.328663194587584</v>
       </c>
       <c r="F4">
-        <v>1.754778070120963</v>
+        <v>2.660655456467822</v>
       </c>
       <c r="G4">
-        <v>0.8974466541511532</v>
+        <v>1.203073496367537</v>
       </c>
       <c r="H4">
-        <v>0.6488625965460102</v>
+        <v>1.166630220449647</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05452348327491219</v>
+        <v>0.0907837669669469</v>
       </c>
       <c r="K4">
-        <v>0.6309765944723296</v>
+        <v>0.2424394326356207</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3921765959320709</v>
+        <v>0.321922896572147</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6028132293895965</v>
+        <v>0.2848478912238193</v>
       </c>
       <c r="C5">
-        <v>0.07614126197729121</v>
+        <v>0.02253184242987061</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2150193212054177</v>
+        <v>0.327316954772563</v>
       </c>
       <c r="F5">
-        <v>1.720793932787089</v>
+        <v>2.656221471229003</v>
       </c>
       <c r="G5">
-        <v>0.8886343967598265</v>
+        <v>1.202399568869382</v>
       </c>
       <c r="H5">
-        <v>0.646929018187933</v>
+        <v>1.167633227193846</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05500601667763938</v>
+        <v>0.09096706453278358</v>
       </c>
       <c r="K5">
-        <v>0.6043560737044515</v>
+        <v>0.2349318280763839</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3762907531171464</v>
+        <v>0.3181817895064682</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5984022246688028</v>
+        <v>0.2836374312105079</v>
       </c>
       <c r="C6">
-        <v>0.07569897733658593</v>
+        <v>0.02239414393670813</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2137748645049697</v>
+        <v>0.3270958605542518</v>
       </c>
       <c r="F6">
-        <v>1.715193990863568</v>
+        <v>2.65550602105705</v>
       </c>
       <c r="G6">
-        <v>0.8871968688729197</v>
+        <v>1.202297716796735</v>
       </c>
       <c r="H6">
-        <v>0.6466227945407752</v>
+        <v>1.167806989819226</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05508699598030908</v>
+        <v>0.09099788386665963</v>
       </c>
       <c r="K6">
-        <v>0.5999402379556358</v>
+        <v>0.2336864708499746</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.373657860322929</v>
+        <v>0.3175633415706969</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6290526777484615</v>
+        <v>0.2920516444256691</v>
       </c>
       <c r="C7">
-        <v>0.07876926132584572</v>
+        <v>0.02334888842869276</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.222434071736231</v>
+        <v>0.3286448746681714</v>
       </c>
       <c r="F7">
-        <v>1.754316825535057</v>
+        <v>2.660594263011944</v>
       </c>
       <c r="G7">
-        <v>0.8973260656120345</v>
+        <v>1.203063733371863</v>
       </c>
       <c r="H7">
-        <v>0.648835516428349</v>
+        <v>1.166643263690034</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05452993330764588</v>
+        <v>0.09078621330927383</v>
       </c>
       <c r="K7">
-        <v>0.6306172690847944</v>
+        <v>0.2423380970914337</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3919620153347196</v>
+        <v>0.3218722577354782</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7652576605394756</v>
+        <v>0.3294848908588222</v>
       </c>
       <c r="C8">
-        <v>0.09233889200510248</v>
+        <v>0.02753636525009995</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2612166240387808</v>
+        <v>0.3358356851951285</v>
       </c>
       <c r="F8">
-        <v>1.933594112255975</v>
+        <v>2.686073930978679</v>
       </c>
       <c r="G8">
-        <v>0.9459631634344419</v>
+        <v>1.207907847749865</v>
       </c>
       <c r="H8">
-        <v>0.660846571034071</v>
+        <v>1.162557073031081</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0521989579492157</v>
+        <v>0.0899078470919612</v>
       </c>
       <c r="K8">
-        <v>0.7667661075514332</v>
+        <v>0.2807001092480448</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4735353432421192</v>
+        <v>0.3412870026165251</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.037122750937357</v>
+        <v>0.403973990207902</v>
       </c>
       <c r="C9">
-        <v>0.1191586458382972</v>
+        <v>0.03565610803025265</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3397829226680713</v>
+        <v>0.3512108647640488</v>
       </c>
       <c r="F9">
-        <v>2.312907542954946</v>
+        <v>2.74693802762755</v>
       </c>
       <c r="G9">
-        <v>1.057562256300926</v>
+        <v>1.222695263491104</v>
       </c>
       <c r="H9">
-        <v>0.6934043000769776</v>
+        <v>1.158319927038249</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04811592699968337</v>
+        <v>0.08838581089879582</v>
       </c>
       <c r="K9">
-        <v>1.037886017055087</v>
+        <v>0.356584925250786</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6372569194597162</v>
+        <v>0.3807940139720642</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.241187899869885</v>
+        <v>0.4593628245719401</v>
       </c>
       <c r="C10">
-        <v>0.1391335887583267</v>
+        <v>0.04156657014928555</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3995211854638612</v>
+        <v>0.3632830754192469</v>
       </c>
       <c r="F10">
-        <v>2.612565883726361</v>
+        <v>2.798330040017618</v>
       </c>
       <c r="G10">
-        <v>1.151584731747391</v>
+        <v>1.236811842602563</v>
       </c>
       <c r="H10">
-        <v>0.7237772452542828</v>
+        <v>1.157515197788513</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04544553541687435</v>
+        <v>0.0873899828996727</v>
       </c>
       <c r="K10">
-        <v>1.241007364273116</v>
+        <v>0.4127412329370372</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7607561051291327</v>
+        <v>0.410695171720846</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.335309997906961</v>
+        <v>0.4847051178155937</v>
       </c>
       <c r="C11">
-        <v>0.1483149230853513</v>
+        <v>0.04424366299922156</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4272538446049978</v>
+        <v>0.3689435531495988</v>
       </c>
       <c r="F11">
-        <v>2.754437327975438</v>
+        <v>2.823166336825068</v>
       </c>
       <c r="G11">
-        <v>1.19749488294687</v>
+        <v>1.243946334978517</v>
       </c>
       <c r="H11">
-        <v>0.7392321271819071</v>
+        <v>1.157651810459043</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04431015915092118</v>
+        <v>0.08696358340786681</v>
       </c>
       <c r="K11">
-        <v>1.334612652124321</v>
+        <v>0.4383769752825799</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8178633674688527</v>
+        <v>0.4244884718638247</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.371169020406654</v>
+        <v>0.4943224613570862</v>
       </c>
       <c r="C12">
-        <v>0.1518085329228711</v>
+        <v>0.04525574653781916</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4378464388231222</v>
+        <v>0.3711112635881619</v>
       </c>
       <c r="F12">
-        <v>2.809050285926958</v>
+        <v>2.832781249427285</v>
       </c>
       <c r="G12">
-        <v>1.215379467565697</v>
+        <v>1.246750935127494</v>
       </c>
       <c r="H12">
-        <v>0.7453418088235537</v>
+        <v>1.157775930799673</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04389238605390666</v>
+        <v>0.08680594839057143</v>
       </c>
       <c r="K12">
-        <v>1.370263336784944</v>
+        <v>0.4480974613596231</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8396423339801302</v>
+        <v>0.4297390765306943</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.363435956995914</v>
+        <v>0.4922502734797831</v>
       </c>
       <c r="C13">
-        <v>0.1510553176814682</v>
+        <v>0.04503785073109157</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4355609132867855</v>
+        <v>0.3706433325132963</v>
       </c>
       <c r="F13">
-        <v>2.797247324428241</v>
+        <v>2.830701163521923</v>
       </c>
       <c r="G13">
-        <v>1.211504677742909</v>
+        <v>1.246142330031134</v>
       </c>
       <c r="H13">
-        <v>0.7440141707060661</v>
+        <v>1.157745978148967</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04398180693555176</v>
+        <v>0.08683972731497924</v>
       </c>
       <c r="K13">
-        <v>1.36257570487453</v>
+        <v>0.4460034143952498</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8349446631829451</v>
+        <v>0.4286070486601545</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.33825560230548</v>
+        <v>0.4854959272449832</v>
       </c>
       <c r="C14">
-        <v>0.1486019873331657</v>
+        <v>0.04432696128223768</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.428123418436634</v>
+        <v>0.3691214071099864</v>
       </c>
       <c r="F14">
-        <v>2.758911997333229</v>
+        <v>2.823953152030526</v>
       </c>
       <c r="G14">
-        <v>1.198955958417812</v>
+        <v>1.244175005965872</v>
       </c>
       <c r="H14">
-        <v>0.7397294870565929</v>
+        <v>1.157660570562115</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04427554023565961</v>
+        <v>0.08695053781604223</v>
       </c>
       <c r="K14">
-        <v>1.337541369773334</v>
+        <v>0.4391764300948466</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8196519323589442</v>
+        <v>0.424919894077064</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.322861148491512</v>
+        <v>0.4813613944972417</v>
       </c>
       <c r="C15">
-        <v>0.1471015459212879</v>
+        <v>0.04389130291576748</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4235799018570958</v>
+        <v>0.3681923350500611</v>
       </c>
       <c r="F15">
-        <v>2.735549146728573</v>
+        <v>2.819847150692283</v>
       </c>
       <c r="G15">
-        <v>1.191336045306656</v>
+        <v>1.242983379339861</v>
       </c>
       <c r="H15">
-        <v>0.7371391753231364</v>
+        <v>1.15761768605654</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04445706878389011</v>
+        <v>0.08701891185640953</v>
       </c>
       <c r="K15">
-        <v>1.322234711153698</v>
+        <v>0.4349963659525997</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8103053457025595</v>
+        <v>0.4226649683300536</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.235065401971156</v>
+        <v>0.4577095616182021</v>
       </c>
       <c r="C16">
-        <v>0.1385357399123137</v>
+        <v>0.04139138189671598</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3977208985471279</v>
+        <v>0.3629165409271522</v>
       </c>
       <c r="F16">
-        <v>2.603413584600617</v>
+        <v>2.796736291335279</v>
       </c>
       <c r="G16">
-        <v>1.148651563825723</v>
+        <v>1.236359966185034</v>
       </c>
       <c r="H16">
-        <v>0.7228020041197993</v>
+        <v>1.157516393916183</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0455213951811082</v>
+        <v>0.08741838512529654</v>
       </c>
       <c r="K16">
-        <v>1.234916875267913</v>
+        <v>0.41106767423571</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7570443635009454</v>
+        <v>0.4097975841566495</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.18155778164973</v>
+        <v>0.4432371032320077</v>
       </c>
       <c r="C17">
-        <v>0.1333073300114904</v>
+        <v>0.03985478537764209</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3820073024329815</v>
+        <v>0.3597231958938494</v>
       </c>
       <c r="F17">
-        <v>2.523837356447373</v>
+        <v>2.782932131263664</v>
       </c>
       <c r="G17">
-        <v>1.123302766617257</v>
+        <v>1.232479581370768</v>
       </c>
       <c r="H17">
-        <v>0.7144409824720412</v>
+        <v>1.157583077437252</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04619517232035442</v>
+        <v>0.08767026889784368</v>
       </c>
       <c r="K17">
-        <v>1.181679981143134</v>
+        <v>0.396411129892897</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7246218006699436</v>
+        <v>0.4019527371842457</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.150901173311269</v>
+        <v>0.4349266460371837</v>
       </c>
       <c r="C18">
-        <v>0.1303087823572753</v>
+        <v>0.03896988352420294</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3730210297149128</v>
+        <v>0.3579023569999649</v>
       </c>
       <c r="F18">
-        <v>2.47858422608769</v>
+        <v>2.775129540731712</v>
       </c>
       <c r="G18">
-        <v>1.109015126594926</v>
+        <v>1.230314752430004</v>
       </c>
       <c r="H18">
-        <v>0.7097847148793903</v>
+        <v>1.157668741248273</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04659013517662736</v>
+        <v>0.08781764979273632</v>
       </c>
       <c r="K18">
-        <v>1.151170855005688</v>
+        <v>0.3879895490246668</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7060591121976358</v>
+        <v>0.3974585830801516</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.140541000473945</v>
+        <v>0.432115229503097</v>
       </c>
       <c r="C19">
-        <v>0.1292949259275247</v>
+        <v>0.03867008352392531</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3699870144457904</v>
+        <v>0.3572885829351549</v>
       </c>
       <c r="F19">
-        <v>2.463348467802746</v>
+        <v>2.772511271880248</v>
       </c>
       <c r="G19">
-        <v>1.10422639026018</v>
+        <v>1.229593284228756</v>
       </c>
       <c r="H19">
-        <v>0.708233792326169</v>
+        <v>1.157705867849785</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0467251162093465</v>
+        <v>0.08786798028323517</v>
       </c>
       <c r="K19">
-        <v>1.14085920560828</v>
+        <v>0.3851396067615269</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6997882689711687</v>
+        <v>0.3959400333762488</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.187241167828432</v>
+        <v>0.4447763026422251</v>
       </c>
       <c r="C20">
-        <v>0.1338629808650609</v>
+        <v>0.0400184717710772</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3836746090861709</v>
+        <v>0.3600614889295741</v>
       </c>
       <c r="F20">
-        <v>2.532254244057711</v>
+        <v>2.784387405994011</v>
       </c>
       <c r="G20">
-        <v>1.125970601596123</v>
+        <v>1.232885710823055</v>
       </c>
       <c r="H20">
-        <v>0.7153150654703637</v>
+        <v>1.157571081793364</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04612267402440651</v>
+        <v>0.0876431962337314</v>
       </c>
       <c r="K20">
-        <v>1.187335400617428</v>
+        <v>0.3979704679372844</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7280642044357251</v>
+        <v>0.4027859729223309</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.345645529225408</v>
+        <v>0.4874792802272054</v>
       </c>
       <c r="C21">
-        <v>0.1493221055656733</v>
+        <v>0.04453581219522107</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4303054355556668</v>
+        <v>0.3695677768893546</v>
       </c>
       <c r="F21">
-        <v>2.770147113351726</v>
+        <v>2.825929506185503</v>
       </c>
       <c r="G21">
-        <v>1.202627862481521</v>
+        <v>1.244750060057584</v>
       </c>
       <c r="H21">
-        <v>0.7409808376406204</v>
+        <v>1.157683691430663</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04418892700036992</v>
+        <v>0.08691788599692174</v>
       </c>
       <c r="K21">
-        <v>1.344888750258349</v>
+        <v>0.4411813350099294</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8241394349825057</v>
+        <v>0.4260021584275222</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.450453591051172</v>
+        <v>0.5155091122106512</v>
       </c>
       <c r="C22">
-        <v>0.1595254253405187</v>
+        <v>0.04747839960924694</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4613165457840367</v>
+        <v>0.3759217759752005</v>
       </c>
       <c r="F22">
-        <v>2.930855728798861</v>
+        <v>2.854303544134041</v>
       </c>
       <c r="G22">
-        <v>1.255664366636893</v>
+        <v>1.253104207394614</v>
       </c>
       <c r="H22">
-        <v>0.7592659559952324</v>
+        <v>1.158179269384107</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04299644936944702</v>
+        <v>0.0864662000841534</v>
       </c>
       <c r="K22">
-        <v>1.449067002351484</v>
+        <v>0.4694965994254687</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8878368366200675</v>
+        <v>0.4413348315493266</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.394387181425884</v>
+        <v>0.5005380518084053</v>
       </c>
       <c r="C23">
-        <v>0.1540694262307625</v>
+        <v>0.04590877931690329</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4447125694835563</v>
+        <v>0.3725176362607883</v>
       </c>
       <c r="F23">
-        <v>2.844571660763108</v>
+        <v>2.839047696934074</v>
       </c>
       <c r="G23">
-        <v>1.227072018654809</v>
+        <v>1.24859039151616</v>
       </c>
       <c r="H23">
-        <v>0.749360868566697</v>
+        <v>1.157876124897456</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.043626100723408</v>
+        <v>0.08670522631532052</v>
       </c>
       <c r="K23">
-        <v>1.393343475923132</v>
+        <v>0.4543774446101452</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8537501207907638</v>
+        <v>0.4331369288251068</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.184671382234086</v>
+        <v>0.4440803995792351</v>
       </c>
       <c r="C24">
-        <v>0.1336117485077182</v>
+        <v>0.03994447380088673</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3829206720215552</v>
+        <v>0.3599084997413158</v>
       </c>
       <c r="F24">
-        <v>2.528447430031633</v>
+        <v>2.783729060129758</v>
       </c>
       <c r="G24">
-        <v>1.124763587021846</v>
+        <v>1.232701893961988</v>
       </c>
       <c r="H24">
-        <v>0.7149194250923614</v>
+        <v>1.157576357602835</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04615542688935292</v>
+        <v>0.08765542778145807</v>
       </c>
       <c r="K24">
-        <v>1.184778284187871</v>
+        <v>0.3972654766785979</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7265076538954389</v>
+        <v>0.4024092173475324</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9629261512278049</v>
+        <v>0.3837066503964763</v>
       </c>
       <c r="C25">
-        <v>0.1118668027160794</v>
+        <v>0.03346924819319952</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3182120550021494</v>
+        <v>0.3469151462522149</v>
       </c>
       <c r="F25">
-        <v>2.206923225818443</v>
+        <v>2.729302706527221</v>
       </c>
       <c r="G25">
-        <v>1.025424618016771</v>
+        <v>1.21812580073663</v>
       </c>
       <c r="H25">
-        <v>0.6835379484828223</v>
+        <v>1.159061292469914</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04916513416992174</v>
+        <v>0.08877608140019078</v>
       </c>
       <c r="K25">
-        <v>0.9639600341125174</v>
+        <v>0.3359854165477998</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5924730730559915</v>
+        <v>0.3699526572446246</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3397006374899547</v>
+        <v>0.8024363579934857</v>
       </c>
       <c r="C2">
-        <v>0.02866471113603097</v>
+        <v>0.09602493201377627</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3378702794578814</v>
+        <v>0.2718783063216392</v>
       </c>
       <c r="F2">
-        <v>2.693714048937238</v>
+        <v>1.98390802764267</v>
       </c>
       <c r="G2">
-        <v>1.20957717133804</v>
+        <v>0.9601657221460442</v>
       </c>
       <c r="H2">
-        <v>1.161705211693757</v>
+        <v>0.6646772721881149</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08968341031793159</v>
+        <v>0.05159932192819028</v>
       </c>
       <c r="K2">
-        <v>0.2911386485056653</v>
+        <v>0.8038870042512656</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3466445029133709</v>
+        <v>0.4958602223284032</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3101547195475689</v>
+        <v>0.6949347845966258</v>
       </c>
       <c r="C3">
-        <v>0.02538525436314387</v>
+        <v>0.08534683483738092</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3320661613269991</v>
+        <v>0.2411352680625853</v>
       </c>
       <c r="F3">
-        <v>2.672381942019086</v>
+        <v>1.839987063130962</v>
       </c>
       <c r="G3">
-        <v>1.205136168216157</v>
+        <v>0.9201506476392041</v>
       </c>
       <c r="H3">
-        <v>1.164462089716523</v>
+        <v>0.6542256828284962</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09034952885836134</v>
+        <v>0.05337461080054862</v>
       </c>
       <c r="K3">
-        <v>0.2609142533154483</v>
+        <v>0.6965051548260703</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3312153550935051</v>
+        <v>0.431374212306018</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2921502670799327</v>
+        <v>0.6294117864231907</v>
       </c>
       <c r="C4">
-        <v>0.02336004607641939</v>
+        <v>0.0788051931135243</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.328663194587584</v>
+        <v>0.2225356873543021</v>
       </c>
       <c r="F4">
-        <v>2.660655456467822</v>
+        <v>1.754778070120963</v>
       </c>
       <c r="G4">
-        <v>1.203073496367537</v>
+        <v>0.8974466541511674</v>
       </c>
       <c r="H4">
-        <v>1.166630220449647</v>
+        <v>0.6488625965458823</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0907837669669469</v>
+        <v>0.05452348327487844</v>
       </c>
       <c r="K4">
-        <v>0.2424394326356207</v>
+        <v>0.6309765944722443</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.321922896572147</v>
+        <v>0.3921765959320709</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2848478912238193</v>
+        <v>0.6028132293896817</v>
       </c>
       <c r="C5">
-        <v>0.02253184242987061</v>
+        <v>0.076141261977277</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.327316954772563</v>
+        <v>0.2150193212054248</v>
       </c>
       <c r="F5">
-        <v>2.656221471229003</v>
+        <v>1.720793932787089</v>
       </c>
       <c r="G5">
-        <v>1.202399568869382</v>
+        <v>0.8886343967597554</v>
       </c>
       <c r="H5">
-        <v>1.167633227193846</v>
+        <v>0.646929018187933</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09096706453278358</v>
+        <v>0.05500601667759408</v>
       </c>
       <c r="K5">
-        <v>0.2349318280763839</v>
+        <v>0.6043560737044089</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3181817895064682</v>
+        <v>0.3762907531171535</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2836374312105079</v>
+        <v>0.5984022246686607</v>
       </c>
       <c r="C6">
-        <v>0.02239414393670813</v>
+        <v>0.07569897733659303</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3270958605542518</v>
+        <v>0.2137748645049697</v>
       </c>
       <c r="F6">
-        <v>2.65550602105705</v>
+        <v>1.715193990863611</v>
       </c>
       <c r="G6">
-        <v>1.202297716796735</v>
+        <v>0.8871968688730476</v>
       </c>
       <c r="H6">
-        <v>1.167806989819226</v>
+        <v>0.6466227945407752</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09099788386665963</v>
+        <v>0.0550869959804885</v>
       </c>
       <c r="K6">
-        <v>0.2336864708499746</v>
+        <v>0.5999402379555931</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3175633415706969</v>
+        <v>0.373657860322929</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2920516444256691</v>
+        <v>0.6290526777484047</v>
       </c>
       <c r="C7">
-        <v>0.02334888842869276</v>
+        <v>0.0787692613262152</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3286448746681714</v>
+        <v>0.2224340717362097</v>
       </c>
       <c r="F7">
-        <v>2.660594263011944</v>
+        <v>1.754316825535042</v>
       </c>
       <c r="G7">
-        <v>1.203063733371863</v>
+        <v>0.8973260656119777</v>
       </c>
       <c r="H7">
-        <v>1.166643263690034</v>
+        <v>0.6488355164282495</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09078621330927383</v>
+        <v>0.05452993330760236</v>
       </c>
       <c r="K7">
-        <v>0.2423380970914337</v>
+        <v>0.6306172690848086</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3218722577354782</v>
+        <v>0.3919620153347481</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3294848908588222</v>
+        <v>0.7652576605397314</v>
       </c>
       <c r="C8">
-        <v>0.02753636525009995</v>
+        <v>0.09233889200544354</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3358356851951285</v>
+        <v>0.261216624038795</v>
       </c>
       <c r="F8">
-        <v>2.686073930978679</v>
+        <v>1.93359411225596</v>
       </c>
       <c r="G8">
-        <v>1.207907847749865</v>
+        <v>0.9459631634344845</v>
       </c>
       <c r="H8">
-        <v>1.162557073031081</v>
+        <v>0.6608465710341704</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0899078470919612</v>
+        <v>0.05219895794910201</v>
       </c>
       <c r="K8">
-        <v>0.2807001092480448</v>
+        <v>0.7667661075514616</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3412870026165251</v>
+        <v>0.4735353432421405</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.403973990207902</v>
+        <v>1.037122750937243</v>
       </c>
       <c r="C9">
-        <v>0.03565610803025265</v>
+        <v>0.1191586458383114</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3512108647640488</v>
+        <v>0.3397829226680855</v>
       </c>
       <c r="F9">
-        <v>2.74693802762755</v>
+        <v>2.312907542954932</v>
       </c>
       <c r="G9">
-        <v>1.222695263491104</v>
+        <v>1.057562256300983</v>
       </c>
       <c r="H9">
-        <v>1.158319927038249</v>
+        <v>0.6934043000768924</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08838581089879582</v>
+        <v>0.04811592699969758</v>
       </c>
       <c r="K9">
-        <v>0.356584925250786</v>
+        <v>1.037886017055001</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3807940139720642</v>
+        <v>0.6372569194597304</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4593628245719401</v>
+        <v>1.241187899869942</v>
       </c>
       <c r="C10">
-        <v>0.04156657014928555</v>
+        <v>0.1391335887584262</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3632830754192469</v>
+        <v>0.3995211854638683</v>
       </c>
       <c r="F10">
-        <v>2.798330040017618</v>
+        <v>2.612565883726361</v>
       </c>
       <c r="G10">
-        <v>1.236811842602563</v>
+        <v>1.151584731747434</v>
       </c>
       <c r="H10">
-        <v>1.157515197788513</v>
+        <v>0.7237772452542828</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0873899828996727</v>
+        <v>0.04544553541676422</v>
       </c>
       <c r="K10">
-        <v>0.4127412329370372</v>
+        <v>1.241007364273145</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.410695171720846</v>
+        <v>0.7607561051291256</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4847051178155937</v>
+        <v>1.335309997906791</v>
       </c>
       <c r="C11">
-        <v>0.04424366299922156</v>
+        <v>0.1483149230851097</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3689435531495988</v>
+        <v>0.4272538446050405</v>
       </c>
       <c r="F11">
-        <v>2.823166336825068</v>
+        <v>2.754437327975438</v>
       </c>
       <c r="G11">
-        <v>1.243946334978517</v>
+        <v>1.19749488294687</v>
       </c>
       <c r="H11">
-        <v>1.157651810459043</v>
+        <v>0.7392321271817934</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08696358340786681</v>
+        <v>0.04431015915080927</v>
       </c>
       <c r="K11">
-        <v>0.4383769752825799</v>
+        <v>1.334612652124349</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4244884718638247</v>
+        <v>0.8178633674688527</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4943224613570862</v>
+        <v>1.371169020406654</v>
       </c>
       <c r="C12">
-        <v>0.04525574653781916</v>
+        <v>0.1518085329228569</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3711112635881619</v>
+        <v>0.4378464388231009</v>
       </c>
       <c r="F12">
-        <v>2.832781249427285</v>
+        <v>2.809050285926958</v>
       </c>
       <c r="G12">
-        <v>1.246750935127494</v>
+        <v>1.215379467565668</v>
       </c>
       <c r="H12">
-        <v>1.157775930799673</v>
+        <v>0.7453418088235537</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08680594839057143</v>
+        <v>0.04389238605390489</v>
       </c>
       <c r="K12">
-        <v>0.4480974613596231</v>
+        <v>1.370263336785001</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4297390765306943</v>
+        <v>0.8396423339801302</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4922502734797831</v>
+        <v>1.363435956995858</v>
       </c>
       <c r="C13">
-        <v>0.04503785073109157</v>
+        <v>0.151055317681525</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3706433325132963</v>
+        <v>0.4355609132867855</v>
       </c>
       <c r="F13">
-        <v>2.830701163521923</v>
+        <v>2.797247324428241</v>
       </c>
       <c r="G13">
-        <v>1.246142330031134</v>
+        <v>1.211504677742823</v>
       </c>
       <c r="H13">
-        <v>1.157745978148967</v>
+        <v>0.7440141707060661</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08683972731497924</v>
+        <v>0.04398180693549136</v>
       </c>
       <c r="K13">
-        <v>0.4460034143952498</v>
+        <v>1.362575704874445</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4286070486601545</v>
+        <v>0.834944663182938</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4854959272449832</v>
+        <v>1.338255602305566</v>
       </c>
       <c r="C14">
-        <v>0.04432696128223768</v>
+        <v>0.1486019873333646</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3691214071099864</v>
+        <v>0.4281234184366411</v>
       </c>
       <c r="F14">
-        <v>2.823953152030526</v>
+        <v>2.758911997333257</v>
       </c>
       <c r="G14">
-        <v>1.244175005965872</v>
+        <v>1.198955958417855</v>
       </c>
       <c r="H14">
-        <v>1.157660570562115</v>
+        <v>0.7397294870565929</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08695053781604223</v>
+        <v>0.04427554023570579</v>
       </c>
       <c r="K14">
-        <v>0.4391764300948466</v>
+        <v>1.337541369773277</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.424919894077064</v>
+        <v>0.8196519323589158</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4813613944972417</v>
+        <v>1.322861148491512</v>
       </c>
       <c r="C15">
-        <v>0.04389130291576748</v>
+        <v>0.1471015459212595</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3681923350500611</v>
+        <v>0.4235799018570603</v>
       </c>
       <c r="F15">
-        <v>2.819847150692283</v>
+        <v>2.735549146728687</v>
       </c>
       <c r="G15">
-        <v>1.242983379339861</v>
+        <v>1.191336045306628</v>
       </c>
       <c r="H15">
-        <v>1.15761768605654</v>
+        <v>0.7371391753231364</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08701891185640953</v>
+        <v>0.0444570687840482</v>
       </c>
       <c r="K15">
-        <v>0.4349963659525997</v>
+        <v>1.322234711153698</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4226649683300536</v>
+        <v>0.8103053457025382</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4577095616182021</v>
+        <v>1.235065401971013</v>
       </c>
       <c r="C16">
-        <v>0.04139138189671598</v>
+        <v>0.1385357399123279</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3629165409271522</v>
+        <v>0.3977208985471279</v>
       </c>
       <c r="F16">
-        <v>2.796736291335279</v>
+        <v>2.603413584600645</v>
       </c>
       <c r="G16">
-        <v>1.236359966185034</v>
+        <v>1.148651563825766</v>
       </c>
       <c r="H16">
-        <v>1.157516393916183</v>
+        <v>0.7228020041196856</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08741838512529654</v>
+        <v>0.04552139518110998</v>
       </c>
       <c r="K16">
-        <v>0.41106767423571</v>
+        <v>1.23491687526797</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4097975841566495</v>
+        <v>0.7570443635009312</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4432371032320077</v>
+        <v>1.181557781649531</v>
       </c>
       <c r="C17">
-        <v>0.03985478537764209</v>
+        <v>0.1333073300112062</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3597231958938494</v>
+        <v>0.3820073024330242</v>
       </c>
       <c r="F17">
-        <v>2.782932131263664</v>
+        <v>2.523837356447387</v>
       </c>
       <c r="G17">
-        <v>1.232479581370768</v>
+        <v>1.123302766617229</v>
       </c>
       <c r="H17">
-        <v>1.157583077437252</v>
+        <v>0.7144409824720697</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08767026889784368</v>
+        <v>0.04619517232028159</v>
       </c>
       <c r="K17">
-        <v>0.396411129892897</v>
+        <v>1.181679981143219</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4019527371842457</v>
+        <v>0.7246218006699223</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4349266460371837</v>
+        <v>1.150901173311269</v>
       </c>
       <c r="C18">
-        <v>0.03896988352420294</v>
+        <v>0.1303087823571332</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3579023569999649</v>
+        <v>0.3730210297149057</v>
       </c>
       <c r="F18">
-        <v>2.775129540731712</v>
+        <v>2.478584226087705</v>
       </c>
       <c r="G18">
-        <v>1.230314752430004</v>
+        <v>1.109015126594912</v>
       </c>
       <c r="H18">
-        <v>1.157668741248273</v>
+        <v>0.7097847148793903</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08781764979273632</v>
+        <v>0.04659013517669131</v>
       </c>
       <c r="K18">
-        <v>0.3879895490246668</v>
+        <v>1.15117085500566</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3974585830801516</v>
+        <v>0.7060591121976287</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.432115229503097</v>
+        <v>1.14054100047403</v>
       </c>
       <c r="C19">
-        <v>0.03867008352392531</v>
+        <v>0.129294925927411</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3572885829351549</v>
+        <v>0.3699870144457691</v>
       </c>
       <c r="F19">
-        <v>2.772511271880248</v>
+        <v>2.463348467802732</v>
       </c>
       <c r="G19">
-        <v>1.229593284228756</v>
+        <v>1.104226390260138</v>
       </c>
       <c r="H19">
-        <v>1.157705867849785</v>
+        <v>0.708233792326169</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08786798028323517</v>
+        <v>0.04672511620935005</v>
       </c>
       <c r="K19">
-        <v>0.3851396067615269</v>
+        <v>1.140859205608308</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3959400333762488</v>
+        <v>0.6997882689711616</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4447763026422251</v>
+        <v>1.187241167828347</v>
       </c>
       <c r="C20">
-        <v>0.0400184717710772</v>
+        <v>0.1338629808649472</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3600614889295741</v>
+        <v>0.3836746090861709</v>
       </c>
       <c r="F20">
-        <v>2.784387405994011</v>
+        <v>2.532254244057711</v>
       </c>
       <c r="G20">
-        <v>1.232885710823055</v>
+        <v>1.125970601596137</v>
       </c>
       <c r="H20">
-        <v>1.157571081793364</v>
+        <v>0.7153150654703921</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0876431962337314</v>
+        <v>0.04612267402435855</v>
       </c>
       <c r="K20">
-        <v>0.3979704679372844</v>
+        <v>1.187335400617542</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4027859729223309</v>
+        <v>0.7280642044357251</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4874792802272054</v>
+        <v>1.34564552922555</v>
       </c>
       <c r="C21">
-        <v>0.04453581219522107</v>
+        <v>0.1493221055655312</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3695677768893546</v>
+        <v>0.4303054355556668</v>
       </c>
       <c r="F21">
-        <v>2.825929506185503</v>
+        <v>2.770147113351697</v>
       </c>
       <c r="G21">
-        <v>1.244750060057584</v>
+        <v>1.202627862481478</v>
       </c>
       <c r="H21">
-        <v>1.157683691430663</v>
+        <v>0.7409808376406204</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08691788599692174</v>
+        <v>0.04418892700042143</v>
       </c>
       <c r="K21">
-        <v>0.4411813350099294</v>
+        <v>1.344888750258491</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4260021584275222</v>
+        <v>0.82413943498252</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5155091122106512</v>
+        <v>1.4504535910512</v>
       </c>
       <c r="C22">
-        <v>0.04747839960924694</v>
+        <v>0.1595254253407745</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3759217759752005</v>
+        <v>0.4613165457840438</v>
       </c>
       <c r="F22">
-        <v>2.854303544134041</v>
+        <v>2.930855728798861</v>
       </c>
       <c r="G22">
-        <v>1.253104207394614</v>
+        <v>1.255664366636893</v>
       </c>
       <c r="H22">
-        <v>1.158179269384107</v>
+        <v>0.7592659559952324</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0864662000841534</v>
+        <v>0.04299644936944347</v>
       </c>
       <c r="K22">
-        <v>0.4694965994254687</v>
+        <v>1.449067002351455</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4413348315493266</v>
+        <v>0.8878368366200746</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5005380518084053</v>
+        <v>1.394387181426083</v>
       </c>
       <c r="C23">
-        <v>0.04590877931690329</v>
+        <v>0.1540694262308904</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3725176362607883</v>
+        <v>0.4447125694835421</v>
       </c>
       <c r="F23">
-        <v>2.839047696934074</v>
+        <v>2.84457166076308</v>
       </c>
       <c r="G23">
-        <v>1.24859039151616</v>
+        <v>1.227072018654781</v>
       </c>
       <c r="H23">
-        <v>1.157876124897456</v>
+        <v>0.7493608685665833</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08670522631532052</v>
+        <v>0.04362610072336004</v>
       </c>
       <c r="K23">
-        <v>0.4543774446101452</v>
+        <v>1.393343475923103</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4331369288251068</v>
+        <v>0.8537501207907781</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4440803995792351</v>
+        <v>1.184671382234143</v>
       </c>
       <c r="C24">
-        <v>0.03994447380088673</v>
+        <v>0.1336117485075761</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3599084997413158</v>
+        <v>0.3829206720215481</v>
       </c>
       <c r="F24">
-        <v>2.783729060129758</v>
+        <v>2.528447430031605</v>
       </c>
       <c r="G24">
-        <v>1.232701893961988</v>
+        <v>1.124763587021903</v>
       </c>
       <c r="H24">
-        <v>1.157576357602835</v>
+        <v>0.7149194250923472</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08765542778145807</v>
+        <v>0.0461554268893849</v>
       </c>
       <c r="K24">
-        <v>0.3972654766785979</v>
+        <v>1.184778284187928</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4024092173475324</v>
+        <v>0.726507653895446</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3837066503964763</v>
+        <v>0.962926151227947</v>
       </c>
       <c r="C25">
-        <v>0.03346924819319952</v>
+        <v>0.1118668027158094</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3469151462522149</v>
+        <v>0.3182120550021637</v>
       </c>
       <c r="F25">
-        <v>2.729302706527221</v>
+        <v>2.206923225818443</v>
       </c>
       <c r="G25">
-        <v>1.21812580073663</v>
+        <v>1.025424618016672</v>
       </c>
       <c r="H25">
-        <v>1.159061292469914</v>
+        <v>0.6835379484827229</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08877608140019078</v>
+        <v>0.04916513416985957</v>
       </c>
       <c r="K25">
-        <v>0.3359854165477998</v>
+        <v>0.9639600341124321</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3699526572446246</v>
+        <v>0.5924730730559844</v>
       </c>
       <c r="N25">
         <v>0</v>
